--- a/tests/Feature/config/cabin_zero.xlsx
+++ b/tests/Feature/config/cabin_zero.xlsx
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -151,13 +151,13 @@
     <t>Address</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>Rental AirBNBExpencesFortune sets the value from the tax authorities, which is different from marketprice Asset rule Using current amount: 10000000 * 1</t>
+    <t>Rental AirBNBExpencesFortune sets the value from the tax authorities, which is different from marketprice Asset rule: Using current amount: 10000000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 10000000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 10000000 * 1</t>
   </si>
   <si>
     <t>total</t>
@@ -573,19 +573,19 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="37.705" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
@@ -3204,17 +3204,17 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>50000.0</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>227077.0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>4772923.0</v>
       </c>
       <c r="N38" s="1">
         <v>0</v>
@@ -3225,16 +3225,16 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>10000000.0</v>
+        <v>5227077.0</v>
       </c>
       <c r="S38" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T38" s="1">
-        <v>10000000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>350000</v>
+        <v>200000</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="1">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -3258,6 +3258,9 @@
         <v>0.0</v>
       </c>
       <c r="AE38"/>
+      <c r="AF38">
+        <v>0</v>
+      </c>
       <c r="AG38"/>
     </row>
     <row r="39" spans="1:33">
@@ -3272,7 +3275,7 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
@@ -3280,17 +3283,17 @@
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="8">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="8">
-        <v>0</v>
+        <v>47729.0</v>
       </c>
       <c r="L39" s="8">
-        <v>0</v>
+        <v>229347.0</v>
       </c>
       <c r="M39" s="8">
-        <v>0</v>
+        <v>4543576.0</v>
       </c>
       <c r="N39" s="8">
         <v>0</v>
@@ -3301,24 +3304,24 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>10000000.0</v>
+        <v>5456424.0</v>
       </c>
       <c r="S39" s="8">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T39" s="8">
-        <v>10000000.0</v>
+        <v>1277077.0</v>
       </c>
       <c r="U39" s="8">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="8">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -3334,7 +3337,9 @@
         <v>0.0</v>
       </c>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
+      <c r="AF39" s="7">
+        <v>0</v>
+      </c>
       <c r="AG39"/>
     </row>
     <row r="40" spans="1:33">
@@ -3349,7 +3354,7 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3357,17 +3362,17 @@
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="11">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="11">
-        <v>0</v>
+        <v>45436.0</v>
       </c>
       <c r="L40" s="11">
-        <v>0</v>
+        <v>231641.0</v>
       </c>
       <c r="M40" s="11">
-        <v>0</v>
+        <v>4311935.0</v>
       </c>
       <c r="N40" s="11">
         <v>0</v>
@@ -3378,24 +3383,24 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>10000000.0</v>
+        <v>5688065.0</v>
       </c>
       <c r="S40" s="11">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T40" s="11">
-        <v>10000000.0</v>
+        <v>1554154.0</v>
       </c>
       <c r="U40" s="11">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X40" s="12"/>
       <c r="Y40" s="11">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -3411,7 +3416,9 @@
         <v>0.0</v>
       </c>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
+      <c r="AF40" s="10">
+        <v>0</v>
+      </c>
       <c r="AG40"/>
     </row>
     <row r="41" spans="1:33">
@@ -3426,7 +3433,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3434,17 +3441,17 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>43119.0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>233957.0</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>4077978.0</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
@@ -3455,24 +3462,24 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>10000000.0</v>
+        <v>5922022.0</v>
       </c>
       <c r="S41" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T41" s="1">
-        <v>10000000.0</v>
+        <v>1831231.0</v>
       </c>
       <c r="U41" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -3488,6 +3495,9 @@
         <v>0.0</v>
       </c>
       <c r="AE41"/>
+      <c r="AF41">
+        <v>0</v>
+      </c>
       <c r="AG41"/>
     </row>
     <row r="42" spans="1:33">
@@ -3502,7 +3512,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3510,17 +3520,17 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>40780.0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>236297.0</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>3841681.0</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
@@ -3531,24 +3541,24 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>10000000.0</v>
+        <v>6158319.0</v>
       </c>
       <c r="S42" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T42" s="1">
-        <v>10000000.0</v>
+        <v>2108308.0</v>
       </c>
       <c r="U42" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X42" s="2"/>
       <c r="Y42" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -3564,6 +3574,9 @@
         <v>0.0</v>
       </c>
       <c r="AE42"/>
+      <c r="AF42">
+        <v>0</v>
+      </c>
       <c r="AG42"/>
     </row>
     <row r="43" spans="1:33">
@@ -3578,7 +3591,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3586,17 +3599,17 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>38417.0</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>238660.0</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>3603021.0</v>
       </c>
       <c r="N43" s="1">
         <v>0</v>
@@ -3607,24 +3620,24 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>10000000.0</v>
+        <v>6396979.0</v>
       </c>
       <c r="S43" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T43" s="1">
-        <v>10000000.0</v>
+        <v>2385385.0</v>
       </c>
       <c r="U43" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -3640,6 +3653,9 @@
         <v>0.0</v>
       </c>
       <c r="AE43"/>
+      <c r="AF43">
+        <v>0</v>
+      </c>
       <c r="AG43"/>
     </row>
     <row r="44" spans="1:33">
@@ -3654,7 +3670,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3662,17 +3678,17 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>36030.0</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>241046.0</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>3361975.0</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
@@ -3683,24 +3699,24 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>10000000.0</v>
+        <v>6638025.0</v>
       </c>
       <c r="S44" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T44" s="1">
-        <v>10000000.0</v>
+        <v>2662462.0</v>
       </c>
       <c r="U44" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -3716,6 +3732,9 @@
         <v>0.0</v>
       </c>
       <c r="AE44"/>
+      <c r="AF44">
+        <v>0</v>
+      </c>
       <c r="AG44"/>
     </row>
     <row r="45" spans="1:33">
@@ -3730,7 +3749,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3738,17 +3757,17 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>33620.0</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>243457.0</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>3118518.0</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3759,24 +3778,24 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>10000000.0</v>
+        <v>6881482.0</v>
       </c>
       <c r="S45" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T45" s="1">
-        <v>10000000.0</v>
+        <v>2939539.0</v>
       </c>
       <c r="U45" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -3792,6 +3811,9 @@
         <v>0.0</v>
       </c>
       <c r="AE45"/>
+      <c r="AF45">
+        <v>0</v>
+      </c>
       <c r="AG45"/>
     </row>
     <row r="46" spans="1:33">
@@ -3806,7 +3828,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3814,17 +3836,17 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>31185.0</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>245891.0</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>2872627.0</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
@@ -3835,24 +3857,24 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>10000000.0</v>
+        <v>7127373.0</v>
       </c>
       <c r="S46" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T46" s="1">
-        <v>10000000.0</v>
+        <v>3216616.0</v>
       </c>
       <c r="U46" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -3868,6 +3890,9 @@
         <v>0.0</v>
       </c>
       <c r="AE46"/>
+      <c r="AF46">
+        <v>0</v>
+      </c>
       <c r="AG46"/>
     </row>
     <row r="47" spans="1:33">
@@ -3882,7 +3907,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3890,17 +3915,17 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>28726.0</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>248350.0</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>2624277.0</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
@@ -3911,24 +3936,24 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>10000000.0</v>
+        <v>7375723.0</v>
       </c>
       <c r="S47" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T47" s="1">
-        <v>10000000.0</v>
+        <v>3493693.0</v>
       </c>
       <c r="U47" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -3944,6 +3969,9 @@
         <v>0.0</v>
       </c>
       <c r="AE47"/>
+      <c r="AF47">
+        <v>0</v>
+      </c>
       <c r="AG47"/>
     </row>
     <row r="48" spans="1:33">
@@ -3958,7 +3986,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -3966,17 +3994,17 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>26243.0</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>250834.0</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>2373443.0</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
@@ -3987,24 +4015,24 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>10000000.0</v>
+        <v>7626557.0</v>
       </c>
       <c r="S48" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T48" s="1">
-        <v>10000000.0</v>
+        <v>3770770.0</v>
       </c>
       <c r="U48" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X48" s="2"/>
       <c r="Y48" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -4020,6 +4048,9 @@
         <v>0.0</v>
       </c>
       <c r="AE48"/>
+      <c r="AF48">
+        <v>0</v>
+      </c>
       <c r="AG48"/>
     </row>
     <row r="49" spans="1:33">
@@ -4034,7 +4065,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -4042,17 +4073,17 @@
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>23734.0</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>253342.0</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>2120101.0</v>
       </c>
       <c r="N49" s="1">
         <v>0</v>
@@ -4063,24 +4094,24 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>10000000.0</v>
+        <v>7879899.0</v>
       </c>
       <c r="S49" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T49" s="1">
-        <v>10000000.0</v>
+        <v>4047847.0</v>
       </c>
       <c r="U49" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -4096,6 +4127,9 @@
         <v>0.0</v>
       </c>
       <c r="AE49"/>
+      <c r="AF49">
+        <v>0</v>
+      </c>
       <c r="AG49"/>
     </row>
     <row r="50" spans="1:33">
@@ -4110,7 +4144,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4118,17 +4152,17 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>21201.0</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>255876.0</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>1864225.0</v>
       </c>
       <c r="N50" s="1">
         <v>0</v>
@@ -4139,24 +4173,24 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>10000000.0</v>
+        <v>8135775.0</v>
       </c>
       <c r="S50" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T50" s="1">
-        <v>10000000.0</v>
+        <v>4324924.0</v>
       </c>
       <c r="U50" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -4172,6 +4206,9 @@
         <v>0.0</v>
       </c>
       <c r="AE50"/>
+      <c r="AF50">
+        <v>0</v>
+      </c>
       <c r="AG50"/>
     </row>
     <row r="51" spans="1:33">
@@ -4186,7 +4223,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4194,17 +4231,17 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>18642.0</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>258434.0</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>1605791.0</v>
       </c>
       <c r="N51" s="1">
         <v>0</v>
@@ -4215,24 +4252,24 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>10000000.0</v>
+        <v>8394209.0</v>
       </c>
       <c r="S51" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T51" s="1">
-        <v>10000000.0</v>
+        <v>4602001.0</v>
       </c>
       <c r="U51" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -4248,6 +4285,9 @@
         <v>0.0</v>
       </c>
       <c r="AE51"/>
+      <c r="AF51">
+        <v>0</v>
+      </c>
       <c r="AG51"/>
     </row>
     <row r="52" spans="1:33">
@@ -4262,7 +4302,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4270,17 +4310,17 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>16058.0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>261019.0</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>1344772.0</v>
       </c>
       <c r="N52" s="1">
         <v>0</v>
@@ -4291,24 +4331,24 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>10000000.0</v>
+        <v>8655228.0</v>
       </c>
       <c r="S52" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T52" s="1">
-        <v>10000000.0</v>
+        <v>4879078.0</v>
       </c>
       <c r="U52" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -4324,6 +4364,9 @@
         <v>0.0</v>
       </c>
       <c r="AE52"/>
+      <c r="AF52">
+        <v>0</v>
+      </c>
       <c r="AG52"/>
     </row>
     <row r="53" spans="1:33">
@@ -4338,7 +4381,7 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4346,17 +4389,17 @@
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="13">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="13">
-        <v>0</v>
+        <v>13448.0</v>
       </c>
       <c r="L53" s="13">
-        <v>0</v>
+        <v>263629.0</v>
       </c>
       <c r="M53" s="13">
-        <v>0</v>
+        <v>1081143.0</v>
       </c>
       <c r="N53" s="13">
         <v>0</v>
@@ -4367,24 +4410,24 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>10000000.0</v>
+        <v>8918857.0</v>
       </c>
       <c r="S53" s="13">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T53" s="13">
-        <v>10000000.0</v>
+        <v>5156155.0</v>
       </c>
       <c r="U53" s="13">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="13">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -4400,7 +4443,9 @@
         <v>0.0</v>
       </c>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
       <c r="AG53"/>
     </row>
     <row r="54" spans="1:33">
@@ -4415,7 +4460,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4423,17 +4468,17 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>10811.0</v>
       </c>
       <c r="L54" s="1">
-        <v>0</v>
+        <v>266265.0</v>
       </c>
       <c r="M54" s="1">
-        <v>0</v>
+        <v>814878.0</v>
       </c>
       <c r="N54" s="1">
         <v>0</v>
@@ -4444,24 +4489,24 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>10000000.0</v>
+        <v>9185122.0</v>
       </c>
       <c r="S54" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T54" s="1">
-        <v>10000000.0</v>
+        <v>5433232.0</v>
       </c>
       <c r="U54" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -4477,6 +4522,9 @@
         <v>0.0</v>
       </c>
       <c r="AE54"/>
+      <c r="AF54">
+        <v>0</v>
+      </c>
       <c r="AG54"/>
     </row>
     <row r="55" spans="1:33">
@@ -4491,7 +4539,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4499,17 +4547,17 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>8149.0</v>
       </c>
       <c r="L55" s="1">
-        <v>0</v>
+        <v>268928.0</v>
       </c>
       <c r="M55" s="1">
-        <v>0</v>
+        <v>545950.0</v>
       </c>
       <c r="N55" s="1">
         <v>0</v>
@@ -4520,24 +4568,24 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>10000000.0</v>
+        <v>9454050.0</v>
       </c>
       <c r="S55" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T55" s="1">
-        <v>10000000.0</v>
+        <v>5710309.0</v>
       </c>
       <c r="U55" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -4553,6 +4601,9 @@
         <v>0.0</v>
       </c>
       <c r="AE55"/>
+      <c r="AF55">
+        <v>0</v>
+      </c>
       <c r="AG55"/>
     </row>
     <row r="56" spans="1:33">
@@ -4567,7 +4618,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4575,17 +4626,17 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>5460.0</v>
       </c>
       <c r="L56" s="1">
-        <v>0</v>
+        <v>271617.0</v>
       </c>
       <c r="M56" s="1">
-        <v>0</v>
+        <v>274333.0</v>
       </c>
       <c r="N56" s="1">
         <v>0</v>
@@ -4596,24 +4647,24 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>10000000.0</v>
+        <v>9725667.0</v>
       </c>
       <c r="S56" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T56" s="1">
-        <v>10000000.0</v>
+        <v>5987386.0</v>
       </c>
       <c r="U56" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -4629,6 +4680,9 @@
         <v>0.0</v>
       </c>
       <c r="AE56"/>
+      <c r="AF56">
+        <v>0</v>
+      </c>
       <c r="AG56"/>
     </row>
     <row r="57" spans="1:33">
@@ -4643,7 +4697,7 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4651,17 +4705,17 @@
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="13">
-        <v>0</v>
+        <v>277077.0</v>
       </c>
       <c r="J57" s="14"/>
       <c r="K57" s="13">
-        <v>0</v>
+        <v>2743.0</v>
       </c>
       <c r="L57" s="13">
-        <v>0</v>
+        <v>274333.0</v>
       </c>
       <c r="M57" s="13">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N57" s="13">
         <v>0</v>
@@ -4675,21 +4729,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T57" s="13">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U57" s="13">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="13">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -4705,7 +4759,9 @@
         <v>0.0</v>
       </c>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
       <c r="AG57"/>
     </row>
     <row r="58" spans="1:33">
@@ -4720,7 +4776,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4752,21 +4808,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T58" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U58" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -4796,7 +4852,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4828,21 +4884,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T59" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U59" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X59" s="2"/>
       <c r="Y59" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -4872,7 +4928,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4904,21 +4960,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T60" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U60" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -4948,7 +5004,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4980,21 +5036,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T61" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U61" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -5024,7 +5080,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -5056,21 +5112,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T62" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U62" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -5100,7 +5156,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -5132,21 +5188,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T63" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U63" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -5176,7 +5232,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5208,21 +5264,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T64" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U64" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -5252,7 +5308,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5284,21 +5340,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T65" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U65" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X65" s="2"/>
       <c r="Y65" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -5328,7 +5384,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5360,21 +5416,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T66" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U66" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -5404,7 +5460,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5436,21 +5492,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T67" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U67" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X67" s="2"/>
       <c r="Y67" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -5480,7 +5536,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5512,21 +5568,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T68" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U68" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X68" s="2"/>
       <c r="Y68" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -5556,7 +5612,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5588,21 +5644,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T69" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U69" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X69" s="2"/>
       <c r="Y69" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -5632,7 +5688,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5664,21 +5720,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T70" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U70" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -5708,7 +5764,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5740,21 +5796,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T71" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U71" s="6">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -5784,7 +5840,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5816,21 +5872,21 @@
         <v>10000000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T72" s="5">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U72" s="5">
-        <v>3000000.0</v>
+        <v>200000</v>
       </c>
       <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>13000.0</v>
+        <v>0.0</v>
       </c>
       <c r="X72" s="16"/>
       <c r="Y72" s="5">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
@@ -6128,19 +6184,19 @@
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="11.711" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="25" max="25" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="26" max="26" width="5.856" bestFit="true" customWidth="true" style="0"/>
@@ -6355,7 +6411,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6423,7 +6479,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6491,7 +6547,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6559,7 +6615,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6627,7 +6683,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6695,7 +6751,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6763,7 +6819,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6831,7 +6887,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6899,7 +6955,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6967,7 +7023,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7035,7 +7091,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7103,7 +7159,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7171,7 +7227,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7239,7 +7295,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7307,7 +7363,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7375,7 +7431,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7443,7 +7499,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7511,7 +7567,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7579,7 +7635,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7647,7 +7703,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7715,7 +7771,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7783,7 +7839,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7851,7 +7907,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7919,7 +7975,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -7987,7 +8043,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8055,7 +8111,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8123,7 +8179,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8191,7 +8247,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8259,7 +8315,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8327,7 +8383,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8395,7 +8451,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8463,7 +8519,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="1">
@@ -8499,18 +8555,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="1">
         <v>0.0</v>
       </c>
       <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="I38" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K38" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>227077.0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>4772923.0</v>
+      </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2"/>
       <c r="P38" s="6">
@@ -8518,28 +8584,26 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="1">
-        <v>10000000.0</v>
+        <v>5227077.0</v>
       </c>
       <c r="S38" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T38" s="1">
-        <v>10000000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="U38" s="6">
-        <v>350000</v>
-      </c>
-      <c r="V38" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V38" s="2"/>
       <c r="W38" s="1">
-        <v>3500.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
       </c>
       <c r="Y38" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="1">
@@ -8571,18 +8635,28 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8">
         <v>0.0</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
+      <c r="I39" s="8">
+        <v>277077.0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="K39" s="8">
+        <v>47729.0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>229347.0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>4543576.0</v>
+      </c>
       <c r="N39" s="8"/>
       <c r="O39" s="9"/>
       <c r="P39" s="8">
@@ -8590,28 +8664,26 @@
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="8">
-        <v>10000000.0</v>
+        <v>5456424.0</v>
       </c>
       <c r="S39" s="8">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T39" s="8">
-        <v>10000000.0</v>
+        <v>1277077.0</v>
       </c>
       <c r="U39" s="8">
-        <v>3000000.0</v>
-      </c>
-      <c r="V39" s="9">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V39" s="9"/>
       <c r="W39" s="8">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
       </c>
       <c r="Y39" s="8">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="8">
@@ -8644,18 +8716,28 @@
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
         <v>0.0</v>
       </c>
       <c r="H40" s="12"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
+      <c r="I40" s="11">
+        <v>277077.0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="K40" s="11">
+        <v>45436.0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>231641.0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>4311935.0</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="12"/>
       <c r="P40" s="11">
@@ -8663,28 +8745,26 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>10000000.0</v>
+        <v>5688065.0</v>
       </c>
       <c r="S40" s="11">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T40" s="11">
-        <v>10000000.0</v>
+        <v>1554154.0</v>
       </c>
       <c r="U40" s="11">
-        <v>3000000.0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V40" s="12"/>
       <c r="W40" s="11">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
       </c>
       <c r="Y40" s="11">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z40" s="12"/>
       <c r="AA40" s="11">
@@ -8717,18 +8797,28 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
         <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="I41" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K41" s="1">
+        <v>43119.0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>233957.0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>4077978.0</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
       <c r="P41" s="6">
@@ -8736,28 +8826,26 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>10000000.0</v>
+        <v>5922022.0</v>
       </c>
       <c r="S41" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T41" s="1">
-        <v>10000000.0</v>
+        <v>1831231.0</v>
       </c>
       <c r="U41" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V41" s="2"/>
       <c r="W41" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
       </c>
       <c r="Y41" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="1">
@@ -8789,18 +8877,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
         <v>0.0</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="I42" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K42" s="1">
+        <v>40780.0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>236297.0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3841681.0</v>
+      </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2"/>
       <c r="P42" s="6">
@@ -8808,28 +8906,26 @@
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>10000000.0</v>
+        <v>6158319.0</v>
       </c>
       <c r="S42" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T42" s="1">
-        <v>10000000.0</v>
+        <v>2108308.0</v>
       </c>
       <c r="U42" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V42" s="2"/>
       <c r="W42" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
       </c>
       <c r="Y42" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="1">
@@ -8861,18 +8957,28 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
         <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="I43" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K43" s="1">
+        <v>38417.0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>238660.0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3603021.0</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="2"/>
       <c r="P43" s="6">
@@ -8880,28 +8986,26 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>10000000.0</v>
+        <v>6396979.0</v>
       </c>
       <c r="S43" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T43" s="1">
-        <v>10000000.0</v>
+        <v>2385385.0</v>
       </c>
       <c r="U43" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V43" s="2"/>
       <c r="W43" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
       </c>
       <c r="Y43" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="1">
@@ -8933,18 +9037,28 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
         <v>0.0</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="I44" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K44" s="1">
+        <v>36030.0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>241046.0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>3361975.0</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
       <c r="P44" s="6">
@@ -8952,28 +9066,26 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>10000000.0</v>
+        <v>6638025.0</v>
       </c>
       <c r="S44" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T44" s="1">
-        <v>10000000.0</v>
+        <v>2662462.0</v>
       </c>
       <c r="U44" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V44" s="2"/>
       <c r="W44" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
       </c>
       <c r="Y44" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="1">
@@ -9005,18 +9117,28 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
         <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="I45" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K45" s="1">
+        <v>33620.0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>243457.0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3118518.0</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="2"/>
       <c r="P45" s="6">
@@ -9024,28 +9146,26 @@
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>10000000.0</v>
+        <v>6881482.0</v>
       </c>
       <c r="S45" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T45" s="1">
-        <v>10000000.0</v>
+        <v>2939539.0</v>
       </c>
       <c r="U45" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V45" s="2"/>
       <c r="W45" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
       </c>
       <c r="Y45" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="1">
@@ -9077,18 +9197,28 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
         <v>0.0</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="I46" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K46" s="1">
+        <v>31185.0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>245891.0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2872627.0</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="2"/>
       <c r="P46" s="6">
@@ -9096,28 +9226,26 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>10000000.0</v>
+        <v>7127373.0</v>
       </c>
       <c r="S46" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T46" s="1">
-        <v>10000000.0</v>
+        <v>3216616.0</v>
       </c>
       <c r="U46" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V46" s="2"/>
       <c r="W46" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
       </c>
       <c r="Y46" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" s="1">
@@ -9149,18 +9277,28 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
         <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="I47" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K47" s="1">
+        <v>28726.0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>248350.0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2624277.0</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="2"/>
       <c r="P47" s="6">
@@ -9168,28 +9306,26 @@
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>10000000.0</v>
+        <v>7375723.0</v>
       </c>
       <c r="S47" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T47" s="1">
-        <v>10000000.0</v>
+        <v>3493693.0</v>
       </c>
       <c r="U47" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V47" s="2"/>
       <c r="W47" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
       </c>
       <c r="Y47" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z47" s="2"/>
       <c r="AA47" s="1">
@@ -9221,18 +9357,28 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
         <v>0.0</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="I48" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K48" s="1">
+        <v>26243.0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>250834.0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2373443.0</v>
+      </c>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
       <c r="P48" s="6">
@@ -9240,28 +9386,26 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>10000000.0</v>
+        <v>7626557.0</v>
       </c>
       <c r="S48" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T48" s="1">
-        <v>10000000.0</v>
+        <v>3770770.0</v>
       </c>
       <c r="U48" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V48" s="2"/>
       <c r="W48" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
       </c>
       <c r="Y48" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z48" s="2"/>
       <c r="AA48" s="1">
@@ -9293,18 +9437,28 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
         <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="I49" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K49" s="1">
+        <v>23734.0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>253342.0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2120101.0</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="6">
@@ -9312,28 +9466,26 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>10000000.0</v>
+        <v>7879899.0</v>
       </c>
       <c r="S49" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T49" s="1">
-        <v>10000000.0</v>
+        <v>4047847.0</v>
       </c>
       <c r="U49" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V49" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V49" s="2"/>
       <c r="W49" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
       </c>
       <c r="Y49" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z49" s="2"/>
       <c r="AA49" s="1">
@@ -9365,18 +9517,28 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
         <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="I50" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K50" s="1">
+        <v>21201.0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>255876.0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1864225.0</v>
+      </c>
       <c r="N50" s="1"/>
       <c r="O50" s="2"/>
       <c r="P50" s="6">
@@ -9384,28 +9546,26 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>10000000.0</v>
+        <v>8135775.0</v>
       </c>
       <c r="S50" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T50" s="1">
-        <v>10000000.0</v>
+        <v>4324924.0</v>
       </c>
       <c r="U50" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V50" s="2"/>
       <c r="W50" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
       </c>
       <c r="Y50" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z50" s="2"/>
       <c r="AA50" s="1">
@@ -9437,18 +9597,28 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
         <v>0.0</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="I51" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K51" s="1">
+        <v>18642.0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>258434.0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1605791.0</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="2"/>
       <c r="P51" s="6">
@@ -9456,28 +9626,26 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>10000000.0</v>
+        <v>8394209.0</v>
       </c>
       <c r="S51" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T51" s="1">
-        <v>10000000.0</v>
+        <v>4602001.0</v>
       </c>
       <c r="U51" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V51" s="2"/>
       <c r="W51" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
       </c>
       <c r="Y51" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z51" s="2"/>
       <c r="AA51" s="1">
@@ -9509,18 +9677,28 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
         <v>0.0</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="I52" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K52" s="1">
+        <v>16058.0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>261019.0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1344772.0</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="2"/>
       <c r="P52" s="6">
@@ -9528,28 +9706,26 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>10000000.0</v>
+        <v>8655228.0</v>
       </c>
       <c r="S52" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T52" s="1">
-        <v>10000000.0</v>
+        <v>4879078.0</v>
       </c>
       <c r="U52" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V52" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V52" s="2"/>
       <c r="W52" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
       </c>
       <c r="Y52" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z52" s="2"/>
       <c r="AA52" s="1">
@@ -9581,18 +9757,28 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
         <v>0.0</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="I53" s="13">
+        <v>277077.0</v>
+      </c>
+      <c r="J53" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K53" s="13">
+        <v>13448.0</v>
+      </c>
+      <c r="L53" s="13">
+        <v>263629.0</v>
+      </c>
+      <c r="M53" s="13">
+        <v>1081143.0</v>
+      </c>
       <c r="N53" s="13"/>
       <c r="O53" s="14"/>
       <c r="P53" s="13">
@@ -9600,28 +9786,26 @@
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>10000000.0</v>
+        <v>8918857.0</v>
       </c>
       <c r="S53" s="13">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T53" s="13">
-        <v>10000000.0</v>
+        <v>5156155.0</v>
       </c>
       <c r="U53" s="13">
-        <v>3000000.0</v>
-      </c>
-      <c r="V53" s="14">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V53" s="14"/>
       <c r="W53" s="13">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
       </c>
       <c r="Y53" s="13">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z53" s="14"/>
       <c r="AA53" s="13">
@@ -9654,18 +9838,28 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
         <v>0.0</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="I54" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10811.0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>266265.0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>814878.0</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="O54" s="2"/>
       <c r="P54" s="6">
@@ -9673,28 +9867,26 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>10000000.0</v>
+        <v>9185122.0</v>
       </c>
       <c r="S54" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T54" s="1">
-        <v>10000000.0</v>
+        <v>5433232.0</v>
       </c>
       <c r="U54" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V54" s="2"/>
       <c r="W54" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
       </c>
       <c r="Y54" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z54" s="2"/>
       <c r="AA54" s="1">
@@ -9726,18 +9918,28 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
         <v>0.0</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+      <c r="I55" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K55" s="1">
+        <v>8149.0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>268928.0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>545950.0</v>
+      </c>
       <c r="N55" s="1"/>
       <c r="O55" s="2"/>
       <c r="P55" s="6">
@@ -9745,28 +9947,26 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>10000000.0</v>
+        <v>9454050.0</v>
       </c>
       <c r="S55" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T55" s="1">
-        <v>10000000.0</v>
+        <v>5710309.0</v>
       </c>
       <c r="U55" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V55" s="2"/>
       <c r="W55" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
       </c>
       <c r="Y55" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z55" s="2"/>
       <c r="AA55" s="1">
@@ -9798,18 +9998,28 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
         <v>0.0</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+      <c r="I56" s="1">
+        <v>277077.0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K56" s="1">
+        <v>5460.0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>271617.0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>274333.0</v>
+      </c>
       <c r="N56" s="1"/>
       <c r="O56" s="2"/>
       <c r="P56" s="6">
@@ -9817,28 +10027,26 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>10000000.0</v>
+        <v>9725667.0</v>
       </c>
       <c r="S56" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T56" s="1">
-        <v>10000000.0</v>
+        <v>5987386.0</v>
       </c>
       <c r="U56" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V56" s="2"/>
       <c r="W56" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
       </c>
       <c r="Y56" s="1">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="1">
@@ -9870,18 +10078,28 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
         <v>0.0</v>
       </c>
       <c r="H57" s="14"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="I57" s="13">
+        <v>277077.0</v>
+      </c>
+      <c r="J57" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="K57" s="13">
+        <v>2743.0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>274333.0</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.0</v>
+      </c>
       <c r="N57" s="13"/>
       <c r="O57" s="14"/>
       <c r="P57" s="13">
@@ -9892,25 +10110,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S57" s="13">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T57" s="13">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U57" s="13">
-        <v>3000000.0</v>
-      </c>
-      <c r="V57" s="14">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V57" s="14"/>
       <c r="W57" s="13">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
       </c>
       <c r="Y57" s="13">
-        <v>-2000.0</v>
+        <v>-301077.0</v>
       </c>
       <c r="Z57" s="14"/>
       <c r="AA57" s="13">
@@ -9943,7 +10159,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -9965,25 +10181,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S58" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T58" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U58" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V58" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V58" s="2"/>
       <c r="W58" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
       </c>
       <c r="Y58" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="1">
@@ -10015,7 +10229,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -10037,25 +10251,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S59" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T59" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U59" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V59" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V59" s="2"/>
       <c r="W59" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
       </c>
       <c r="Y59" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z59" s="2"/>
       <c r="AA59" s="1">
@@ -10087,7 +10299,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -10109,25 +10321,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S60" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T60" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U60" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V60" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V60" s="2"/>
       <c r="W60" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
       </c>
       <c r="Y60" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z60" s="2"/>
       <c r="AA60" s="1">
@@ -10159,7 +10369,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -10181,25 +10391,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S61" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T61" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U61" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V61" s="2"/>
       <c r="W61" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
       </c>
       <c r="Y61" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z61" s="2"/>
       <c r="AA61" s="1">
@@ -10231,7 +10439,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -10253,25 +10461,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S62" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T62" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U62" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V62" s="2"/>
       <c r="W62" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
       </c>
       <c r="Y62" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z62" s="2"/>
       <c r="AA62" s="1">
@@ -10303,7 +10509,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -10325,25 +10531,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S63" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T63" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U63" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V63" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V63" s="2"/>
       <c r="W63" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
       </c>
       <c r="Y63" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z63" s="2"/>
       <c r="AA63" s="1">
@@ -10375,7 +10579,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -10397,25 +10601,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S64" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T64" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U64" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V64" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V64" s="2"/>
       <c r="W64" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
       </c>
       <c r="Y64" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="1">
@@ -10447,7 +10649,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -10469,25 +10671,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S65" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T65" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U65" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V65" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V65" s="2"/>
       <c r="W65" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
       </c>
       <c r="Y65" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z65" s="2"/>
       <c r="AA65" s="1">
@@ -10519,7 +10719,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -10541,25 +10741,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S66" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T66" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U66" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V66" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V66" s="2"/>
       <c r="W66" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
       </c>
       <c r="Y66" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z66" s="2"/>
       <c r="AA66" s="1">
@@ -10591,7 +10789,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -10613,25 +10811,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S67" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T67" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U67" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V67" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V67" s="2"/>
       <c r="W67" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
       </c>
       <c r="Y67" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z67" s="2"/>
       <c r="AA67" s="1">
@@ -10663,7 +10859,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -10685,25 +10881,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S68" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T68" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U68" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V68" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V68" s="2"/>
       <c r="W68" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
       </c>
       <c r="Y68" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z68" s="2"/>
       <c r="AA68" s="1">
@@ -10735,7 +10929,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -10757,25 +10951,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S69" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T69" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U69" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V69" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V69" s="2"/>
       <c r="W69" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
       </c>
       <c r="Y69" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z69" s="2"/>
       <c r="AA69" s="1">
@@ -10807,7 +10999,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -10829,25 +11021,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S70" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T70" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U70" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V70" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V70" s="2"/>
       <c r="W70" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
       </c>
       <c r="Y70" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z70" s="2"/>
       <c r="AA70" s="1">
@@ -10879,7 +11069,7 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -10901,25 +11091,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S71" s="1">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T71" s="1">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U71" s="6">
-        <v>3000000.0</v>
-      </c>
-      <c r="V71" s="2">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V71" s="2"/>
       <c r="W71" s="1">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
       </c>
       <c r="Y71" s="1">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z71" s="2"/>
       <c r="AA71" s="1">
@@ -10951,7 +11139,7 @@
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>2000.0</v>
+        <v>24000.0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -10973,25 +11161,23 @@
         <v>10000000.0</v>
       </c>
       <c r="S72" s="5">
-        <v>10000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="T72" s="5">
-        <v>10000000.0</v>
+        <v>6264463.0</v>
       </c>
       <c r="U72" s="5">
-        <v>3000000.0</v>
-      </c>
-      <c r="V72" s="16">
-        <v>0.3</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="V72" s="16"/>
       <c r="W72" s="5">
-        <v>30000.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
       </c>
       <c r="Y72" s="5">
-        <v>-2000.0</v>
+        <v>-24000.0</v>
       </c>
       <c r="Z72" s="16"/>
       <c r="AA72" s="5">
